--- a/player.xlsx
+++ b/player.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ext.hejianyu5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\2k-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D71A662-1B88-4EB1-B628-4953BC9CE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE5B72-56CB-4480-8870-808EDBD0C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>多苏穆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,230 @@
   </si>
   <si>
     <t>布劳恩（200W~410W）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单卡30W以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布里奇斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹈鹕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦格纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亨特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰罗姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以赛亚乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华莱士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡鲁索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库子嘛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒夫特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博尔特二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴雷特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奎克里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独行侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爵士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯斯勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威金斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小贾巴里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持球手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加兰 600W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比尔 300W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉文 1000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布伦森 2300W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊森 1500W(模板极致,投射及格97,双断110，没盖帽，内外防100左右，一套铜徽章，速度98，横移94，可能有板)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OG  1500W  (模板A，投射及格102，双断105，没盖帽，内外防107，横移115，速度101，没板)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布朗  1000W（模板B+，投射一般，防守数值优秀没徽章，速度97，没板，带控球）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴特勒  1100W（模板A，三分一般，防守数值拉满铜徽章，速度105，没板，带一点控球）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多尔特 630W （193 204 C，投射优秀105，双断105，没盖帽，内外防104，横移115，防守10徽章3银，速度96，没板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布劳恩 225W （198 208 B+，三分105A，内外防70内43，横移102，速度103，没板，双断74，没盖帽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三锁板  三分 S 110-120  A 100-110 B 90-100 C 80 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨格斯 410W （196 195 B，三分97 B，内外防90内62，横移104，速度115，没板 ，双断97B，没盖帽,防守4徽章1银）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -922,102 +1146,431 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4"/>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A78" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A80" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A81" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A82" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B87" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B93" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B94" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="21">
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/player.xlsx
+++ b/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\2k-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE5B72-56CB-4480-8870-808EDBD0C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B441D6C-0D50-469C-AA71-E5911FEFACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三锁板  三分 S 110-120  A 100-110 B 90-100 C 80 90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>萨格斯 410W （196 195 B，三分97 B，内外防90内62，横移104，速度115，没板 ，双断97B，没盖帽,防守4徽章1银）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三板锁  三分 S 110-120  A 100-110 B 90-100 C 80 90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:E89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B87" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B94" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -1550,6 +1550,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B94:E94"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B96:E96"/>
@@ -1559,18 +1571,6 @@
     <mergeCell ref="B91:E91"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="B93:E93"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
